--- a/player_d_dash/defense-dash-2pt_SeasonType_Playoffs_Season_2019-20.xlsx
+++ b/player_d_dash/defense-dash-2pt_SeasonType_Playoffs_Season_2019-20.xlsx
@@ -1559,42 +1559,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jimmy Butler</t>
+          <t>Shai Gilgeous-Alexander</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>50.4%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>56.9</t>
+          <t>61.5</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>9.2</t>
         </is>
       </c>
     </row>
@@ -1624,42 +1624,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shai Gilgeous-Alexander</t>
+          <t>Jimmy Butler</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>G-F</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>50.4%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1669,17 +1669,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>61.5</t>
+          <t>56.9</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -1689,42 +1689,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Robert Covington</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>63.8%</t>
+          <t>67.3%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1734,17 +1734,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>62.2</t>
+          <t>59.5</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -1754,42 +1754,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Robert Covington</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>67.3%</t>
+          <t>63.8%</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>59.5</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>9.9</t>
         </is>
       </c>
     </row>
@@ -2339,42 +2339,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Joe Harris</t>
+          <t>Luka Doncic</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>68.0%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,17 +2384,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Luka Doncic</t>
+          <t>Tim Hardaway Jr.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2414,12 +2414,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2434,12 +2434,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>63.0%</t>
+          <t>56.7%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2449,17 +2449,17 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2469,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tim Hardaway Jr.</t>
+          <t>Joe Harris</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2489,22 +2489,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>56.7%</t>
+          <t>68.0%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2514,17 +2514,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>8.1</t>
         </is>
       </c>
     </row>
@@ -4224,42 +4224,42 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>70.3%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4269,17 +4269,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>46.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-5.5</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -4289,42 +4289,42 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>51.0%</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4334,17 +4334,17 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>73.1</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>22.8</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4384,12 +4384,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>51.0%</t>
+          <t>70.3%</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>46.2</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>22.8</t>
+          <t>-5.5</t>
         </is>
       </c>
     </row>
@@ -4874,22 +4874,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Justin Holiday</t>
+          <t>Wenyen Gabriel</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>69.4%</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4919,17 +4919,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-10.5</t>
         </is>
       </c>
     </row>
@@ -4939,22 +4939,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Wenyen Gabriel</t>
+          <t>Justin Holiday</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4969,12 +4969,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>69.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4984,17 +4984,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-10.5</t>
+          <t>6.5</t>
         </is>
       </c>
     </row>
@@ -5134,17 +5134,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Caris LeVert</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5154,22 +5154,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.6</t>
         </is>
       </c>
     </row>
@@ -5199,62 +5199,62 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Caris LeVert</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>69.9%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
           <t>2.9</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>49.0</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -5264,42 +5264,42 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>T.J. Warren</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5309,17 +5309,17 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>45.8</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -5329,42 +5329,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>T.J. Warren</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>69.9%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>45.8</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -5524,17 +5524,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5544,22 +5544,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>63.0%</t>
+          <t>60.3%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -5589,17 +5589,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5609,22 +5609,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>60.3%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -5849,22 +5849,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Garrett Temple</t>
+          <t>Victor Oladipo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5879,12 +5879,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>57.9%</t>
+          <t>48.9%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-11.1</t>
+          <t>-8.8</t>
         </is>
       </c>
     </row>
@@ -5914,22 +5914,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Victor Oladipo</t>
+          <t>Garrett Temple</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>48.9%</t>
+          <t>57.9%</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5959,17 +5959,17 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-8.8</t>
+          <t>-11.1</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Joe Ingles</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6379,12 +6379,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>72.0%</t>
+          <t>61.0%</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6419,12 +6419,12 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Joe Ingles</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6444,12 +6444,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>61.0%</t>
+          <t>72.0%</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6484,12 +6484,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -6499,42 +6499,42 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Steven Adams</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>47.3%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>-33.3</t>
         </is>
       </c>
     </row>
@@ -6564,37 +6564,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mario Hezonja</t>
+          <t>Steven Adams</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>47.3%</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6614,12 +6614,12 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>4.1</t>
+          <t>6.3</t>
         </is>
       </c>
     </row>
@@ -6629,42 +6629,42 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>80.5%</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>54.1</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>-33.3</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -6694,42 +6694,42 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Mario Hezonja</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>80.5%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>54.1</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>4.1</t>
         </is>
       </c>
     </row>
@@ -7864,22 +7864,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>67.9%</t>
+          <t>55.8%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>62.3</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>9.8</t>
+          <t>9.3</t>
         </is>
       </c>
     </row>
@@ -7929,22 +7929,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>55.8%</t>
+          <t>67.9%</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>9.3</t>
+          <t>9.8</t>
         </is>
       </c>
     </row>
@@ -7994,42 +7994,42 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Robin Lopez</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Robin Lopez</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -8134,32 +8134,32 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>52.6%</t>
+          <t>85.7%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8169,17 +8169,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>8.3</t>
         </is>
       </c>
     </row>
@@ -8189,42 +8189,42 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>D.J. Augustin</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -8254,17 +8254,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>D.J. Augustin</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8274,17 +8274,17 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>52.6%</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8304,12 +8304,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>4.7</t>
         </is>
       </c>
     </row>
@@ -9099,12 +9099,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Anfernee Simons</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -9114,27 +9114,27 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>51.9%</t>
+          <t>67.5%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>57.2</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>-6.3</t>
         </is>
       </c>
     </row>
@@ -9164,12 +9164,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Anfernee Simons</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -9179,27 +9179,27 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>67.5%</t>
+          <t>51.9%</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>57.2</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-6.3</t>
+          <t>14.2</t>
         </is>
       </c>
     </row>
@@ -9684,42 +9684,42 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Carsen Edwards</t>
+          <t>JaKarr Sampson</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-55.6</t>
+          <t>11.8</t>
         </is>
       </c>
     </row>
@@ -9749,42 +9749,42 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Chris Chiozza</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9794,17 +9794,17 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-17.3</t>
+          <t>20.5</t>
         </is>
       </c>
     </row>
@@ -9814,17 +9814,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>JaKarr Sampson</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -9834,22 +9834,22 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>11.8</t>
+          <t>-17.3</t>
         </is>
       </c>
     </row>
@@ -9944,42 +9944,42 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chris Chiozza</t>
+          <t>Jaylen Hoard</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>56.3%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9989,17 +9989,17 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>-21.1</t>
         </is>
       </c>
     </row>
@@ -10009,17 +10009,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jaylen Hoard</t>
+          <t>Ersan Ilyasova</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -10029,22 +10029,22 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>56.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10054,17 +10054,17 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-21.1</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -10074,42 +10074,42 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ersan Ilyasova</t>
+          <t>Carsen Edwards</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -10119,17 +10119,17 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>-55.6</t>
         </is>
       </c>
     </row>
@@ -10269,42 +10269,42 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Austin Rivers</t>
+          <t>Keita Bates-Diop</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>59.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10314,17 +10314,17 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>62.5</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-19.2</t>
+          <t>8.5</t>
         </is>
       </c>
     </row>
@@ -10334,42 +10334,42 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Keita Bates-Diop</t>
+          <t>Austin Rivers</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>59.3%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>-19.2</t>
         </is>
       </c>
     </row>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Donta Hall</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -10669,12 +10669,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>-17.9</t>
         </is>
       </c>
     </row>
@@ -10724,7 +10724,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Justin Anderson</t>
+          <t>Donta Hall</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10734,12 +10734,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -10759,7 +10759,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>20.7</t>
         </is>
       </c>
     </row>
@@ -10789,12 +10789,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Terrance Ferguson</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -10814,17 +10814,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-5.4</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -10854,12 +10854,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Terrance Ferguson</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -10879,17 +10879,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>64.3%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10899,17 +10899,17 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>-5.4</t>
         </is>
       </c>
     </row>
@@ -11114,17 +11114,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Josh Reaves</t>
+          <t>Romeo Langford</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -11134,22 +11134,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-52.4</t>
+          <t>-22.3</t>
         </is>
       </c>
     </row>
@@ -11179,22 +11179,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Kyle O'Quinn</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -11209,7 +11209,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -11229,12 +11229,12 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>42.6</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-48.6</t>
+          <t>-42.6</t>
         </is>
       </c>
     </row>
@@ -11244,17 +11244,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Semi Ojeleye</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -11264,22 +11264,22 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11289,17 +11289,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-51.7</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -11309,12 +11309,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Romeo Langford</t>
+          <t>Bol Bol</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -11324,27 +11324,27 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11354,17 +11354,17 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-22.3</t>
+          <t>-26.1</t>
         </is>
       </c>
     </row>
@@ -11374,42 +11374,42 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Bol Bol</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-26.1</t>
+          <t>-48.6</t>
         </is>
       </c>
     </row>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Josh Reaves</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -11449,32 +11449,32 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11484,17 +11484,17 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>-52.4</t>
         </is>
       </c>
     </row>
@@ -11504,42 +11504,42 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Kyle O'Quinn</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11549,17 +11549,17 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-42.6</t>
+          <t>20.1</t>
         </is>
       </c>
     </row>
@@ -11569,17 +11569,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Semi Ojeleye</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -11589,22 +11589,22 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11614,17 +11614,17 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>-51.7</t>
         </is>
       </c>
     </row>
@@ -11829,42 +11829,42 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Miye Oni</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11874,17 +11874,17 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>54.8</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>-32.6</t>
+          <t>-48.6</t>
         </is>
       </c>
     </row>
@@ -11894,42 +11894,42 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Quinn Cook</t>
+          <t>Lance Thomas</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>90.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11939,17 +11939,17 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>-48.0</t>
         </is>
       </c>
     </row>
@@ -11959,42 +11959,42 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Miye Oni</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>64.3%</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12004,17 +12004,17 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-48.6</t>
+          <t>-32.6</t>
         </is>
       </c>
     </row>
@@ -12024,42 +12024,42 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Lance Thomas</t>
+          <t>Quinn Cook</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>90.0%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>54.2</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-48.0</t>
+          <t>12.5</t>
         </is>
       </c>
     </row>
@@ -12154,17 +12154,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Mike Scott</t>
+          <t>Solomon Hill</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12174,22 +12174,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12199,17 +12199,17 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>56.7</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-31.7</t>
+          <t>-41.0</t>
         </is>
       </c>
     </row>
@@ -12219,42 +12219,42 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Solomon Hill</t>
+          <t>Rodney McGruder</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12264,17 +12264,17 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-41.0</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Mike Scott</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -12374,17 +12374,17 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12394,17 +12394,17 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>56.7</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>-31.7</t>
         </is>
       </c>
     </row>
@@ -12414,12 +12414,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Rodney McGruder</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -12439,17 +12439,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>23.1</t>
         </is>
       </c>
     </row>
@@ -12479,22 +12479,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Bruno Caboclo</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -12509,12 +12509,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>58.3</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-49.3</t>
+          <t>41.7</t>
         </is>
       </c>
     </row>
@@ -12544,62 +12544,62 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Bruno Caboclo</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -12609,17 +12609,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Andre Roberson</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -12639,32 +12639,32 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>-51.3</t>
         </is>
       </c>
     </row>
@@ -12674,42 +12674,42 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Frank Mason III</t>
+          <t>Stanley Johnson</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-46.9</t>
+          <t>12.9</t>
         </is>
       </c>
     </row>
@@ -12739,7 +12739,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Frank Mason III</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -12749,12 +12749,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -12789,12 +12789,12 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-51.3</t>
+          <t>-46.9</t>
         </is>
       </c>
     </row>
@@ -12804,22 +12804,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Noah Vonleh</t>
+          <t>Chris Clemons</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12834,12 +12834,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-64.3</t>
+          <t>51.4</t>
         </is>
       </c>
     </row>
@@ -12869,17 +12869,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Norvel Pelle</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -12889,22 +12889,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>36.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -12934,42 +12934,42 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>JR Smith</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>10.7</t>
+          <t>-49.3</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Norvel Pelle</t>
+          <t>Tacko Fall</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13029,32 +13029,32 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>-51.5</t>
         </is>
       </c>
     </row>
@@ -13064,17 +13064,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tyler Cook</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13084,22 +13084,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>36.4%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-49.4</t>
+          <t>25.0</t>
         </is>
       </c>
     </row>
@@ -13129,27 +13129,27 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Deonte Burton</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -13159,12 +13159,12 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-51.4</t>
         </is>
       </c>
     </row>
@@ -13194,17 +13194,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Patrick Patterson</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13224,32 +13224,32 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>62.5</t>
+          <t>-50.7</t>
         </is>
       </c>
     </row>
@@ -13259,42 +13259,42 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Stanley Johnson</t>
+          <t>JR Smith</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13304,17 +13304,17 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>12.9</t>
+          <t>10.7</t>
         </is>
       </c>
     </row>
@@ -13324,37 +13324,37 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Jaylen Adams</t>
+          <t>Andre Roberson</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -13374,12 +13374,12 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>43.4</t>
         </is>
       </c>
     </row>
@@ -13389,12 +13389,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tacko Fall</t>
+          <t>Jaylen Adams</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -13404,27 +13404,27 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13434,17 +13434,17 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-51.5</t>
+          <t>53.3</t>
         </is>
       </c>
     </row>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Patrick Patterson</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -13464,12 +13464,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -13484,7 +13484,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -13504,12 +13504,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>62.5</t>
         </is>
       </c>
     </row>
@@ -13519,22 +13519,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Chris Clemons</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -13569,12 +13569,12 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.3</t>
         </is>
       </c>
     </row>
@@ -13584,22 +13584,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Deonte Burton</t>
+          <t>Tyler Cook</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -13634,12 +13634,12 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-51.4</t>
+          <t>-49.4</t>
         </is>
       </c>
     </row>
@@ -13649,12 +13649,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Noah Vonleh</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -13699,12 +13699,12 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>-50.7</t>
+          <t>-64.3</t>
         </is>
       </c>
     </row>
@@ -13714,17 +13714,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Troy Daniels</t>
+          <t>Paul Watson</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -13734,42 +13734,42 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>46.9</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>-45.5</t>
         </is>
       </c>
     </row>
@@ -13779,17 +13779,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Paul Watson</t>
+          <t>Troy Daniels</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13799,22 +13799,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -13824,17 +13824,17 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>46.9</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>-45.5</t>
+          <t>53.2</t>
         </is>
       </c>
     </row>
